--- a/BalanceSheet/MCO_bal.xlsx
+++ b/BalanceSheet/MCO_bal.xlsx
@@ -1909,16 +1909,16 @@
         <v>828000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>275000000.0</v>
+        <v>39000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>9000000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>149000000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-186000000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>773000000.0</v>
@@ -3081,16 +3081,16 @@
         <v>404000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-43000000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-47000000.0</v>
+        <v>153000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>226000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>57000000.0</v>
+        <v>259000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>357000000.0</v>
@@ -4917,7 +4917,7 @@
         <v>5109000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4225000000.0</v>
+        <v>3740000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3964200000.0</v>
@@ -5044,7 +5044,7 @@
         <v>7340000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>6155000000.0</v>
+        <v>5670000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>5238000000.0</v>
